--- a/biology/Médecine/Groupe_homogène_de_malades/Groupe_homogène_de_malades.xlsx
+++ b/biology/Médecine/Groupe_homogène_de_malades/Groupe_homogène_de_malades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Groupe_homog%C3%A8ne_de_malades</t>
+          <t>Groupe_homogène_de_malades</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, les groupes homogènes de malades (GHM) constituent un système de classification médico-économique des hospitalisations en médecine, chirurgie, obstétrique et odontologie (MCOO)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, les groupes homogènes de malades (GHM) constituent un système de classification médico-économique des hospitalisations en médecine, chirurgie, obstétrique et odontologie (MCOO).
 Au terme de l’hospitalisation d'un patient, un recueil d’informations synthétique est produit : le résumé de sortie standardisé (RSS). Il est composé d'autant de résumés d'unité médicale (RUM) que le patient a fréquenté d'unités médicales pendant son séjour en MCO.
 Pour que les informations administratives et médicales contenues dans le RSS puissent bénéficier d'un traitement automatisé, elles sont codées, et le classement de chaque séjour hospitalier dans un GHM, ou groupage, résulte de tests prédéterminés sur ces informations.
 Les nomenclatures utilisées pour le codage des informations médicales sont la 10e révision de la Classification internationale des maladies (CIM-10) de l'organisation mondiale de la santé (OMS) pour les diagnostics (les motifs de soins) et la Classification commune des actes médicaux (CCAM).
